--- a/data/Reports/VIÑA SAN PEDRO TARAPACA S.A._Financials.xlsx
+++ b/data/Reports/VIÑA SAN PEDRO TARAPACA S.A._Financials.xlsx
@@ -7,15 +7,556 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance General" sheetId="1" r:id="rId1"/>
+    <sheet name="Estado Resultados (Función)" sheetId="2" r:id="rId2"/>
+    <sheet name="Flujo Efectivo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="177">
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Activos [sinopsis]</t>
+  </si>
+  <si>
+    <t>Activos corrientes [sinopsis]</t>
+  </si>
+  <si>
+    <t>Efectivo y equivalentes al efectivo</t>
+  </si>
+  <si>
+    <t>Otros activos financieros corrientes</t>
+  </si>
+  <si>
+    <t>Otros activos no financieros corrientes</t>
+  </si>
+  <si>
+    <t>Deudores comerciales y otras cuentas por cobrar corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar a entidades relacionadas, corrientes</t>
+  </si>
+  <si>
+    <t>Inventarios corrientes</t>
+  </si>
+  <si>
+    <t>Activos biológicos corrientes</t>
+  </si>
+  <si>
+    <t>Activos por impuestos corrientes, corrientes</t>
+  </si>
+  <si>
+    <t>Total de activos corrientes distintos de los activo o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
+  </si>
+  <si>
+    <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
+  </si>
+  <si>
+    <t>Activos corrientes totales</t>
+  </si>
+  <si>
+    <t>Activos no corrientes [sinopsis]</t>
+  </si>
+  <si>
+    <t>Otros activos financieros no corrientes</t>
+  </si>
+  <si>
+    <t>Otros activos no financieros no corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar no corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar a entidades relacionadas, no corrientes</t>
+  </si>
+  <si>
+    <t>Inventarios, no corrientes</t>
+  </si>
+  <si>
+    <t>Inversiones contabilizadas utilizando el método de la participación</t>
+  </si>
+  <si>
+    <t>Activos intangibles distintos de la plusvalía</t>
+  </si>
+  <si>
+    <t>Plusvalía</t>
+  </si>
+  <si>
+    <t>Propiedades, planta y equipo</t>
+  </si>
+  <si>
+    <t>Activos biológicos no corrientes</t>
+  </si>
+  <si>
+    <t>Propiedad de inversión</t>
+  </si>
+  <si>
+    <t>Activos por derecho de uso</t>
+  </si>
+  <si>
+    <t>Activos por impuestos corrientes, no corrientes</t>
+  </si>
+  <si>
+    <t>Activos por impuestos diferidos</t>
+  </si>
+  <si>
+    <t>Total de activos no corrientes</t>
+  </si>
+  <si>
+    <t>Total de activos</t>
+  </si>
+  <si>
+    <t>Patrimonio y pasivos [sinopsis]</t>
+  </si>
+  <si>
+    <t>Pasivos [sinopsis]</t>
+  </si>
+  <si>
+    <t>Pasivos corrientes [sinopsis]</t>
+  </si>
+  <si>
+    <t>Otros pasivos financieros corrientes</t>
+  </si>
+  <si>
+    <t>Pasivos por arrendamientos corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar comerciales y otras cuentas por pagar</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar a entidades relacionadas, corrientes</t>
+  </si>
+  <si>
+    <t>Otras provisiones a corto plazo</t>
+  </si>
+  <si>
+    <t>Pasivos por impuestos corrientes, corrientes</t>
+  </si>
+  <si>
+    <t>Provisiones corrientes por beneficios a los empleados</t>
+  </si>
+  <si>
+    <t>Otros pasivos no financieros corrientes</t>
+  </si>
+  <si>
+    <t>Total de pasivos corrientes distintos de los pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
+  </si>
+  <si>
+    <t>Pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
+  </si>
+  <si>
+    <t>Pasivos corrientes totales</t>
+  </si>
+  <si>
+    <t>Pasivos no corrientes [sinopsis]</t>
+  </si>
+  <si>
+    <t>Otros pasivos financieros no corrientes</t>
+  </si>
+  <si>
+    <t>Pasivos por arrendamientos no corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar no corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar a entidades relacionadas, no corrientes</t>
+  </si>
+  <si>
+    <t>Otras provisiones a largo plazo</t>
+  </si>
+  <si>
+    <t>Pasivo por impuestos diferidos</t>
+  </si>
+  <si>
+    <t>Pasivos por impuestos corrientes, no corrientes</t>
+  </si>
+  <si>
+    <t>Provisiones no corrientes por beneficios a los empleados</t>
+  </si>
+  <si>
+    <t>Otros pasivos no financieros no corrientes</t>
+  </si>
+  <si>
+    <t>Total de pasivos no corrientes</t>
+  </si>
+  <si>
+    <t>Total de pasivos</t>
+  </si>
+  <si>
+    <t>Patrimonio [sinopsis]</t>
+  </si>
+  <si>
+    <t>Capital emitido y pagado</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) acumuladas</t>
+  </si>
+  <si>
+    <t>Prima de emisión</t>
+  </si>
+  <si>
+    <t>Acciones propias en cartera</t>
+  </si>
+  <si>
+    <t>Otras participaciones en el patrimonio</t>
+  </si>
+  <si>
+    <t>Otras reservas</t>
+  </si>
+  <si>
+    <t>Patrimonio atribuible a los propietarios de la controladora</t>
+  </si>
+  <si>
+    <t>Participaciones no controladoras</t>
+  </si>
+  <si>
+    <t>Patrimonio total</t>
+  </si>
+  <si>
+    <t>Total de patrimonio y pasivos</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) [sinopsis]</t>
+  </si>
+  <si>
+    <t>Ingresos de actividades ordinarias</t>
+  </si>
+  <si>
+    <t>Costo de ventas</t>
+  </si>
+  <si>
+    <t>Ganancia bruta</t>
+  </si>
+  <si>
+    <t>Otros ingresos</t>
+  </si>
+  <si>
+    <t>Costos de distribución</t>
+  </si>
+  <si>
+    <t>Gastos de administración</t>
+  </si>
+  <si>
+    <t>Otros gastos, por función</t>
+  </si>
+  <si>
+    <t>Otras ganancias (pérdidas)</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) de actividades operacionales</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) que surgen de la baja en cuentas de activos financieros medidos al costo amortizado</t>
+  </si>
+  <si>
+    <t>Ingresos financieros</t>
+  </si>
+  <si>
+    <t>Costos financieros</t>
+  </si>
+  <si>
+    <t>Deterioro de valor de ganancias y reversión de pérdidas por deterioro de valor (pérdidas por deterioro de valor) determinado de acuerdo con la NIIF 9</t>
+  </si>
+  <si>
+    <t>Participación en las ganancias (pérdidas) de asociadas y negocios conjuntos que se contabilicen utilizando el método de la participación</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) de cambio en moneda extranjera</t>
+  </si>
+  <si>
+    <t>Resultados por unidades de reajuste</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) que surgen de diferencias entre importes en libros anteriores y el valor razonable de activos financieros reclasificados como medidos al valor razonable</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) acumulada anteriormente reconocida en otro resultado integral que surge de la reclasificación de activos financieros de la categoría de medición de valor razonable con cambios en otro resultado integral a la de valor razonable con cambios en resultados</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdidas) de cobertura por cobertura de un grupo de partidas con posiciones de riesgo compensadoras</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida), antes de impuestos</t>
+  </si>
+  <si>
+    <t>Gasto por impuestos a las ganancias</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) procedente de operaciones continuadas</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) procedente de operaciones discontinuadas</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida)</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida), atribuible a [sinopsis]</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida), atribuible a los propietarios de la controladora</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida), atribuible a participaciones no controladoras</t>
+  </si>
+  <si>
+    <t>Ganancias por acción [bloque de texto]</t>
+  </si>
+  <si>
+    <t>Ganancias por acción [sinopsis]</t>
+  </si>
+  <si>
+    <t>Ganancia por acción básica [sinopsis]</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) por acción básica en operaciones continuadas</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) por acción básica en operaciones discontinuadas</t>
+  </si>
+  <si>
+    <t>Ganancia (pérdida) por acción básica</t>
+  </si>
+  <si>
+    <t>Ganancias por acción diluidas [sinopsis]</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdida) diluida por acción procedente de operaciones continuadas</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdida) diluida por acción procedentes de operaciones discontinuadas</t>
+  </si>
+  <si>
+    <t>Ganancias (pérdida) diluida por acción</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo procedentes de (utilizados en) actividades de operación [sinopsis]</t>
+  </si>
+  <si>
+    <t>Clases de cobros por actividades de operación [sinopsis]</t>
+  </si>
+  <si>
+    <t>Cobros procedentes de las ventas de bienes y prestación de servicios</t>
+  </si>
+  <si>
+    <t>Cobros procedentes de regalías, cuotas, comisiones y otros ingresos de actividades ordinarias</t>
+  </si>
+  <si>
+    <t>Cobros derivados de contratos mantenidos para intermediación o para negociar con ellos</t>
+  </si>
+  <si>
+    <t>Cobros derivados de arrendamiento y posterior venta de esos activos</t>
+  </si>
+  <si>
+    <t>Otros cobros por actividades de operación</t>
+  </si>
+  <si>
+    <t>Clases de pagos [sinopsis]</t>
+  </si>
+  <si>
+    <t>Pagos a proveedores por el suministro de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Pagos procedentes de contratos mantenidos para intermediación o para negociar</t>
+  </si>
+  <si>
+    <t>Pagos a y por cuenta de los empleados</t>
+  </si>
+  <si>
+    <t>Pagos por fabricar o adquirir activos mantenidos para arrendar a otros y posteriormente para vender</t>
+  </si>
+  <si>
+    <t>Otros pagos por actividades de operación</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo netos procedentes de (utilizados en) operaciones</t>
+  </si>
+  <si>
+    <t>Dividendos pagados</t>
+  </si>
+  <si>
+    <t>Dividendos recibidos</t>
+  </si>
+  <si>
+    <t>Intereses pagados</t>
+  </si>
+  <si>
+    <t>Intereses recibidos</t>
+  </si>
+  <si>
+    <t>Impuestos a las ganancias pagados (reembolsados)</t>
+  </si>
+  <si>
+    <t>Otras entradas (salidas) de efectivo</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo netos procedentes de (utilizados en) actividades de operación</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo procedentes de (utilizados en) actividades de inversión [sinopsis]</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo procedentes de la pérdida de control de subsidiarias u otros negocios</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo utilizados para obtener el control de subsidiarias u otros negocios</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo utilizados en la compra de participaciones no controladoras</t>
+  </si>
+  <si>
+    <t>Otros cobros por la venta de patrimonio o instrumentos de deuda de otras entidades</t>
+  </si>
+  <si>
+    <t>Otros pagos para adquirir patrimonio o instrumentos de deuda de otras entidades</t>
+  </si>
+  <si>
+    <t>Otros cobros por la venta de participaciones en negocios conjuntos</t>
+  </si>
+  <si>
+    <t>Otros pagos para adquirir participaciones en negocios conjuntos</t>
+  </si>
+  <si>
+    <t>Préstamos a entidades relacionadas</t>
+  </si>
+  <si>
+    <t>Importes procedentes de la venta de propiedades, planta y equipo</t>
+  </si>
+  <si>
+    <t>Compras de propiedades, planta y equipo</t>
+  </si>
+  <si>
+    <t>Importes procedentes de ventas de activos intangibles</t>
+  </si>
+  <si>
+    <t>Compras de activos intangibles</t>
+  </si>
+  <si>
+    <t>Importes procedentes de otros activos a largo plazo</t>
+  </si>
+  <si>
+    <t>Compras de otros activos a largo plazo</t>
+  </si>
+  <si>
+    <t>Importes procedentes de subvenciones del gobierno</t>
+  </si>
+  <si>
+    <t>Anticipos de efectivo y préstamos concedidos a terceros</t>
+  </si>
+  <si>
+    <t>Cobros procedentes del reembolso de anticipos y préstamos concedidos a terceros</t>
+  </si>
+  <si>
+    <t>Pagos derivados de contratos de futuro, a término, de opciones y de permuta financiera</t>
+  </si>
+  <si>
+    <t>Cobros procedentes de contratos de futuro, a término, de opciones y de permuta financiera</t>
+  </si>
+  <si>
+    <t>Cobros a entidades relacionadas</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo procedentes de la venta de participaciones no controladoras</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo netos procedentes de (utilizados en) actividades de inversión</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo procedentes de (utilizados en) actividades de financiación [sinopsis]</t>
+  </si>
+  <si>
+    <t>Cobros por cambios en las participaciones en la propiedad de subsidiarias que no resulta en una pérdida de control</t>
+  </si>
+  <si>
+    <t>Pagos por cambios en las participaciones en la propiedad en subsidiarias que no dan lugar a la pérdida de control</t>
+  </si>
+  <si>
+    <t>Importes procedentes de la emisión de acciones</t>
+  </si>
+  <si>
+    <t>Importes procedentes de la emisión de otros instrumentos de patrimonio</t>
+  </si>
+  <si>
+    <t>Pagos por adquirir o rescatar las acciones de la entidad</t>
+  </si>
+  <si>
+    <t>Pagos por otras participaciones en el patrimonio</t>
+  </si>
+  <si>
+    <t>Importes procedentes de préstamos</t>
+  </si>
+  <si>
+    <t>Importes procedentes de préstamos de largo plazo</t>
+  </si>
+  <si>
+    <t>Importes procedentes de préstamos de corto plazo</t>
+  </si>
+  <si>
+    <t>Préstamos de entidades relacionadas</t>
+  </si>
+  <si>
+    <t>Reembolsos de préstamos</t>
+  </si>
+  <si>
+    <t>Pagos de pasivos por arrendamientos</t>
+  </si>
+  <si>
+    <t>Pagos de préstamos de entidades relacionadas</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo netos procedentes de (utilizados en) actividades de financiación</t>
+  </si>
+  <si>
+    <t>Incremento (disminución) neto de efectivo y equivalentes al efectivo, antes del efecto de los cambios en la tasa de cambio</t>
+  </si>
+  <si>
+    <t>Efectos de la variación en la tasa de cambio sobre el efectivo y equivalentes al efectivo [sinopsis]</t>
+  </si>
+  <si>
+    <t>Efectos de la variación en la tasa de cambio sobre el efectivo y equivalentes al efectivo</t>
+  </si>
+  <si>
+    <t>Incremento (disminución) neto de efectivo y equivalentes al efectivo</t>
+  </si>
+  <si>
+    <t>Efectivo y equivalentes al efectivo al principio del periodo</t>
+  </si>
+  <si>
+    <t>Efectivo y equivalentes al efectivo al final del periodo</t>
+  </si>
+  <si>
+    <t>Cobros procedentes de primas y prestaciones, anualidades y otros beneficios de pólizas suscritas</t>
+  </si>
+  <si>
+    <t>Pagos por primas y prestaciones, anualidades y otras obligaciones derivadas de las pólizas suscritas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +564,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +601,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +931,2874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12082774</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9247842</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5801722</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41792295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2938394</v>
+      </c>
+      <c r="C5" s="1">
+        <v>86607</v>
+      </c>
+      <c r="D5" s="1">
+        <v>325833</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2170866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1555391</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4608362</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5409100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2798110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>71300397</v>
+      </c>
+      <c r="C7" s="1">
+        <v>62549919</v>
+      </c>
+      <c r="D7" s="1">
+        <v>67941059</v>
+      </c>
+      <c r="E7" s="1">
+        <v>62397646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7683005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6140388</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9200371</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6572977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>102405533</v>
+      </c>
+      <c r="C9" s="1">
+        <v>103008822</v>
+      </c>
+      <c r="D9" s="1">
+        <v>98444106</v>
+      </c>
+      <c r="E9" s="1">
+        <v>83956186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16883106</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14764284</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16180293</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12546705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1573399</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5705439</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7286275</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4567709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>216421999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>206111663</v>
+      </c>
+      <c r="D12" s="1">
+        <v>210588759</v>
+      </c>
+      <c r="E12" s="1">
+        <v>216802494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>991312</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1427825</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1770547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>216421999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>207102975</v>
+      </c>
+      <c r="D14" s="1">
+        <v>212016584</v>
+      </c>
+      <c r="E14" s="1">
+        <v>218573041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1239777</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1309798</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>51847</v>
+      </c>
+      <c r="C17" s="1">
+        <v>351086</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3292</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>875136</v>
+      </c>
+      <c r="C18" s="1">
+        <v>683259</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1102666</v>
+      </c>
+      <c r="E18" s="1">
+        <v>928873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>22024851</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21599224</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21607756</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21629125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>28857870</v>
+      </c>
+      <c r="C23" s="1">
+        <v>28857870</v>
+      </c>
+      <c r="D23" s="1">
+        <v>28857870</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28857870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>185897300</v>
+      </c>
+      <c r="C24" s="1">
+        <v>169022492</v>
+      </c>
+      <c r="D24" s="1">
+        <v>172605109</v>
+      </c>
+      <c r="E24" s="1">
+        <v>165022822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3786808</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2439775</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3434168</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5098971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1519634</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2147449</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2428159</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2410807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>243013446</v>
+      </c>
+      <c r="C30" s="1">
+        <v>226340932</v>
+      </c>
+      <c r="D30" s="1">
+        <v>231348818</v>
+      </c>
+      <c r="E30" s="1">
+        <v>223951135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>459435445</v>
+      </c>
+      <c r="C31" s="1">
+        <v>433443907</v>
+      </c>
+      <c r="D31" s="1">
+        <v>443365402</v>
+      </c>
+      <c r="E31" s="1">
+        <v>442524176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>59682515</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17544525</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3934997</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15313572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>994401</v>
+      </c>
+      <c r="C36" s="1">
+        <v>817856</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1897107</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1465514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>47833834</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45503457</v>
+      </c>
+      <c r="D37" s="1">
+        <v>50208059</v>
+      </c>
+      <c r="E37" s="1">
+        <v>56789993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6514722</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7252942</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6162849</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6179196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>23760</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2555567</v>
+      </c>
+      <c r="C40" s="1">
+        <v>58660</v>
+      </c>
+      <c r="D40" s="1">
+        <v>831994</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1053070</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5646603</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4335370</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4821932</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5284494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9675776</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8155982</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16401512</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11345358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>132903418</v>
+      </c>
+      <c r="C43" s="1">
+        <v>83692552</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>132903418</v>
+      </c>
+      <c r="C45" s="1">
+        <v>83692552</v>
+      </c>
+      <c r="D45" s="1">
+        <v>84258450</v>
+      </c>
+      <c r="E45" s="1">
+        <v>97431197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>55292729</v>
+      </c>
+      <c r="D47" s="1">
+        <v>53010534</v>
+      </c>
+      <c r="E47" s="1">
+        <v>51041456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3264972</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1876546</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2278301</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4262527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1">
+        <v>16897</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1">
+        <v>23596048</v>
+      </c>
+      <c r="C52" s="1">
+        <v>16168498</v>
+      </c>
+      <c r="D52" s="1">
+        <v>17796176</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16486324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5230650</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4282757</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3964848</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3002405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1">
+        <v>32108567</v>
+      </c>
+      <c r="C56" s="1">
+        <v>77620530</v>
+      </c>
+      <c r="D56" s="1">
+        <v>77049859</v>
+      </c>
+      <c r="E56" s="1">
+        <v>74792712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1">
+        <v>165011985</v>
+      </c>
+      <c r="C57" s="1">
+        <v>161313082</v>
+      </c>
+      <c r="D57" s="1">
+        <v>161308309</v>
+      </c>
+      <c r="E57" s="1">
+        <v>172223909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1">
+        <v>123808521</v>
+      </c>
+      <c r="C59" s="1">
+        <v>123808521</v>
+      </c>
+      <c r="D59" s="1">
+        <v>123808521</v>
+      </c>
+      <c r="E59" s="1">
+        <v>123808521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1">
+        <v>141803540</v>
+      </c>
+      <c r="C60" s="1">
+        <v>132203151</v>
+      </c>
+      <c r="D60" s="1">
+        <v>125073812</v>
+      </c>
+      <c r="E60" s="1">
+        <v>116821597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
+        <v>28811399</v>
+      </c>
+      <c r="C64" s="1">
+        <v>16119153</v>
+      </c>
+      <c r="D64" s="1">
+        <v>33174760</v>
+      </c>
+      <c r="E64" s="1">
+        <v>29670149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1">
+        <v>294423460</v>
+      </c>
+      <c r="C65" s="1">
+        <v>272130825</v>
+      </c>
+      <c r="D65" s="1">
+        <v>282057093</v>
+      </c>
+      <c r="E65" s="1">
+        <v>270300267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1">
+        <v>294423460</v>
+      </c>
+      <c r="C67" s="1">
+        <v>272130825</v>
+      </c>
+      <c r="D67" s="1">
+        <v>282057093</v>
+      </c>
+      <c r="E67" s="1">
+        <v>270300267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1">
+        <v>459435445</v>
+      </c>
+      <c r="C68" s="1">
+        <v>433443907</v>
+      </c>
+      <c r="D68" s="1">
+        <v>443365402</v>
+      </c>
+      <c r="E68" s="1">
+        <v>442524176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1">
+        <v>282637923</v>
+      </c>
+      <c r="C3" s="1">
+        <v>252825495</v>
+      </c>
+      <c r="D3" s="1">
+        <v>296349893</v>
+      </c>
+      <c r="E3" s="1">
+        <v>261620065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>170264143</v>
+      </c>
+      <c r="C4" s="1">
+        <v>156502790</v>
+      </c>
+      <c r="D4" s="1">
+        <v>183138062</v>
+      </c>
+      <c r="E4" s="1">
+        <v>159494416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>112373780</v>
+      </c>
+      <c r="C5" s="1">
+        <v>96322705</v>
+      </c>
+      <c r="D5" s="1">
+        <v>113211831</v>
+      </c>
+      <c r="E5" s="1">
+        <v>102125649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1357694</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1367706</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1277253</v>
+      </c>
+      <c r="E6" s="1">
+        <v>945276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23315321</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21357723</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21697376</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18565579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23753106</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19299066</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16904719</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16729075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37507931</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37014713</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36840520</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34097104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2821115</v>
+      </c>
+      <c r="C10" s="1">
+        <v>744971</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1928766</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2343231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1">
+        <v>31976231</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20763880</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37117703</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36022398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1">
+        <v>612638</v>
+      </c>
+      <c r="C13" s="1">
+        <v>788143</v>
+      </c>
+      <c r="D13" s="1">
+        <v>452840</v>
+      </c>
+      <c r="E13" s="1">
+        <v>170084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2199141</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2709191</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2376080</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2549769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2113930</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-894890</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2111229</v>
+      </c>
+      <c r="E17" s="1">
+        <v>206803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-3102796</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-7098657</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-7907968</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-5094106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25173002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10849285</v>
+      </c>
+      <c r="D22" s="1">
+        <v>29397724</v>
+      </c>
+      <c r="E22" s="1">
+        <v>28755410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5971690</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-3409768</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-551995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6347882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29949719</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22407528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19201312</v>
+      </c>
+      <c r="C26" s="1">
+        <v>14259053</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29949719</v>
+      </c>
+      <c r="E26" s="1">
+        <v>22407528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19201312</v>
+      </c>
+      <c r="C28" s="1">
+        <v>14259053</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29949719</v>
+      </c>
+      <c r="E28" s="1">
+        <v>22407528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1">
+        <v>325050183</v>
+      </c>
+      <c r="C4" s="1">
+        <v>280693512</v>
+      </c>
+      <c r="D4" s="1">
+        <v>355176738</v>
+      </c>
+      <c r="E4" s="1">
+        <v>320465213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6590016</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10163877</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13641772</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7777520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1">
+        <v>223555536</v>
+      </c>
+      <c r="C10" s="1">
+        <v>203153788</v>
+      </c>
+      <c r="D10" s="1">
+        <v>295200291</v>
+      </c>
+      <c r="E10" s="1">
+        <v>236388496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44459415</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44085956</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42392257</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34373830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25854449</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24320888</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24953130</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23575643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37770799</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19296757</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6272832</v>
+      </c>
+      <c r="E15" s="1">
+        <v>33904764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7137366</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14948153</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17906526</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11167838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-211996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40445090</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21783654</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6000923</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19545855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1">
+        <v>55636</v>
+      </c>
+      <c r="C32" s="1">
+        <v>290760</v>
+      </c>
+      <c r="D32" s="1">
+        <v>839223</v>
+      </c>
+      <c r="E32" s="1">
+        <v>56814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11299504</v>
+      </c>
+      <c r="C33" s="1">
+        <v>11479291</v>
+      </c>
+      <c r="D33" s="1">
+        <v>13820261</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8970067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="1">
+        <v>412480</v>
+      </c>
+      <c r="C35" s="1">
+        <v>121682</v>
+      </c>
+      <c r="D35" s="1">
+        <v>49563</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-11656348</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-11310213</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-13030601</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-8920470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1">
+        <v>23066880</v>
+      </c>
+      <c r="C53" s="1">
+        <v>66538201</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8645884</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3220551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1">
+        <v>23066880</v>
+      </c>
+      <c r="C55" s="1">
+        <v>66538201</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8645884</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3220551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1">
+        <v>41032681</v>
+      </c>
+      <c r="C57" s="1">
+        <v>54695240</v>
+      </c>
+      <c r="D57" s="1">
+        <v>19476631</v>
+      </c>
+      <c r="E57" s="1">
+        <v>30413372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1223696</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2246653</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1860116</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1561474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-26326863</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-5351845</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-30597389</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-40134129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2461879</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5121596</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-37627067</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-29508744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1">
+        <v>373053</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-1675476</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1636494</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7203188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2834932</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3446120</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-35990573</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-22305556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9247842</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5801722</v>
+      </c>
+      <c r="D65" s="1">
+        <v>41792295</v>
+      </c>
+      <c r="E65" s="1">
+        <v>64097851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1">
+        <v>12082774</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9247842</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5801722</v>
+      </c>
+      <c r="E66" s="1">
+        <v>41792295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>